--- a/src/views/apps/freshlist/UploadFormats/CreateUserSample.xlsx
+++ b/src/views/apps/freshlist/UploadFormats/CreateUserSample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -25,9 +25,6 @@
     <t>firstName</t>
   </si>
   <si>
-    <t>lastName</t>
-  </si>
-  <si>
     <t>DOB</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>salesData480</t>
   </si>
   <si>
-    <t>Manager</t>
-  </si>
-  <si>
     <t>7415168043</t>
   </si>
   <si>
@@ -214,9 +208,6 @@
     <t>Charted</t>
   </si>
   <si>
-    <t>accountant</t>
-  </si>
-  <si>
     <t>chartedaccountant@gmail.com</t>
   </si>
   <si>
@@ -230,9 +221,6 @@
   </si>
   <si>
     <t xml:space="preserve">product </t>
-  </si>
-  <si>
-    <t>manager</t>
   </si>
   <si>
     <t>productmanagera@gmail.com</t>
@@ -646,22 +634,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H4"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
-    <col min="7" max="7" width="26.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.625" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,11 +668,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
@@ -794,78 +782,73 @@
       <c r="AR1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:44">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:45">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45450</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1">
+        <v>123456</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45450</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="1">
-        <v>123456</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="S2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
@@ -878,66 +861,63 @@
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
-      <c r="AL2" s="1"/>
+      <c r="AL2" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="AM2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>12333</v>
+      </c>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AN2" s="1" t="s">
+      <c r="AQ2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AO2" s="1">
-        <v>12333</v>
-      </c>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1" t="s">
+      <c r="AR2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AR2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AS2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45450</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:45">
-      <c r="A3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45450</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="G3" s="1">
         <v>123456</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="H3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="N3" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="O3" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>69</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
@@ -966,47 +946,44 @@
       <c r="AP3" s="1"/>
       <c r="AQ3" s="1"/>
       <c r="AR3" s="1"/>
-      <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45">
+    <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="2">
+        <v>68</v>
+      </c>
+      <c r="D4" s="2">
         <v>45450</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="1">
+        <v>69</v>
+      </c>
+      <c r="G4" s="1">
         <v>123456</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="H4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="N4" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="O4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>75</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
@@ -1028,26 +1005,25 @@
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
       <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1">
+      <c r="AL4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1">
         <v>35000</v>
       </c>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ4" s="1"/>
       <c r="AR4" s="1"/>
-      <c r="AS4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="I1:AS1 B2:D4 J3:L3 J4:AS4 AM2:AO2 AQ2:AS2 Y2 O2:V2 O3:AS3 F2:G4 A1:G1 J2:L2" numberStoredAsText="1"/>
+    <ignoredError sqref="H1:AR1 B2:C4 I3:K3 I4:AR4 AL2:AN2 AP2:AR2 X2 N2:U2 N3:AR3 E2:F4 A1:C1 I2:K2 D1:F1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>